--- a/Post/Bot Manager.xlsx
+++ b/Post/Bot Manager.xlsx
@@ -88,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,6 +116,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -168,13 +176,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,7 +209,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,6 +263,9 @@
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="s">
@@ -276,7 +291,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,10 +312,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>16</v>
@@ -308,10 +323,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
@@ -319,10 +334,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
